--- a/data/trans_orig/P57_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P57_R-Clase-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>58092</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>43462</v>
+        <v>43699</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>73282</v>
+        <v>73187</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1360028588382318</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1017510010630536</v>
+        <v>0.1023066141595759</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.171565263118851</v>
+        <v>0.1713412866473988</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>36</v>
@@ -763,19 +763,19 @@
         <v>38970</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27652</v>
+        <v>27281</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>51809</v>
+        <v>51320</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1129355974980916</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08013655686240302</v>
+        <v>0.07906026639658273</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1501436254780921</v>
+        <v>0.1487248974129327</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>90</v>
@@ -784,19 +784,19 @@
         <v>97062</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>78868</v>
+        <v>76884</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>117305</v>
+        <v>117032</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1256950794020965</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.102133065441709</v>
+        <v>0.09956349547937596</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.151909213538846</v>
+        <v>0.1515551798228363</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>369048</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>353858</v>
+        <v>353953</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>383678</v>
+        <v>383441</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8639971411617682</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.828434736881149</v>
+        <v>0.8286587133526011</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8982489989369464</v>
+        <v>0.897693385840424</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>294</v>
@@ -834,19 +834,19 @@
         <v>306096</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>293257</v>
+        <v>293746</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>317414</v>
+        <v>317785</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8870644025019084</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8498563745219079</v>
+        <v>0.8512751025870672</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9198634431375967</v>
+        <v>0.9209397336034172</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>634</v>
@@ -855,19 +855,19 @@
         <v>675144</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>654901</v>
+        <v>655174</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>693338</v>
+        <v>695322</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8743049205979035</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.848090786461154</v>
+        <v>0.8484448201771637</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.897866934558291</v>
+        <v>0.900436504520624</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>46080</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>34232</v>
+        <v>34774</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>59190</v>
+        <v>60643</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1229505334737204</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09133736713485759</v>
+        <v>0.09278360052561722</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1579312478398633</v>
+        <v>0.16181006467388</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>48</v>
@@ -980,19 +980,19 @@
         <v>53731</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>40128</v>
+        <v>40531</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>68862</v>
+        <v>69366</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1456138586779799</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1087477396555395</v>
+        <v>0.1098404208284239</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1866198756047547</v>
+        <v>0.1879864443884255</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>92</v>
@@ -1001,19 +1001,19 @@
         <v>99811</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>82489</v>
+        <v>81121</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>121385</v>
+        <v>119409</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.134194069836884</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.110905985232083</v>
+        <v>0.1090655533535422</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1632010841034358</v>
+        <v>0.1605434771140733</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>328701</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>315591</v>
+        <v>314138</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>340549</v>
+        <v>340007</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8770494665262796</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8420687521601369</v>
+        <v>0.8381899353261202</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9086626328651425</v>
+        <v>0.9072163994743828</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>301</v>
@@ -1051,19 +1051,19 @@
         <v>315266</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>300135</v>
+        <v>299631</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>328869</v>
+        <v>328466</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8543861413220202</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8133801243952452</v>
+        <v>0.8120135556115743</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8912522603444605</v>
+        <v>0.890159579171576</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>609</v>
@@ -1072,19 +1072,19 @@
         <v>643967</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>622393</v>
+        <v>624369</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>661289</v>
+        <v>662657</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.865805930163116</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8367989158965644</v>
+        <v>0.839456522885927</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8890940147679172</v>
+        <v>0.8909344466464578</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>116042</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>96265</v>
+        <v>97411</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>135016</v>
+        <v>135372</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2235976334765374</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1854884565150194</v>
+        <v>0.1876979838530775</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2601566858057707</v>
+        <v>0.2608436710369897</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>40</v>
@@ -1197,19 +1197,19 @@
         <v>49724</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37413</v>
+        <v>37348</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>63245</v>
+        <v>63186</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3021331624026756</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2273268602738997</v>
+        <v>0.226933191027799</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3842865031133101</v>
+        <v>0.3839259996620689</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>150</v>
@@ -1218,19 +1218,19 @@
         <v>165767</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>142265</v>
+        <v>142754</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>187715</v>
+        <v>189004</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2425064288915514</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2081249822715665</v>
+        <v>0.2088397280641288</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2746144025743384</v>
+        <v>0.2765003328289702</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>402937</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>383963</v>
+        <v>383607</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>422714</v>
+        <v>421568</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7764023665234626</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7398433141942296</v>
+        <v>0.7391563289630104</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8145115434849807</v>
+        <v>0.8123020161469227</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>112</v>
@@ -1268,19 +1268,19 @@
         <v>114854</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>101333</v>
+        <v>101392</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>127165</v>
+        <v>127230</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6978668375973245</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6157134968866901</v>
+        <v>0.6160740003379311</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7726731397261003</v>
+        <v>0.773066808972201</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>501</v>
@@ -1289,19 +1289,19 @@
         <v>517791</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>495843</v>
+        <v>494554</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>541293</v>
+        <v>540804</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7574935711084486</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7253855974256617</v>
+        <v>0.7234996671710299</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7918750177284336</v>
+        <v>0.7911602719358712</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>216299</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>191906</v>
+        <v>190340</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>245414</v>
+        <v>243550</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1888290213683016</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1675340351409104</v>
+        <v>0.1661670598680208</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.214246092483335</v>
+        <v>0.212619268599354</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>161</v>
@@ -1414,19 +1414,19 @@
         <v>170390</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>146110</v>
+        <v>147792</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>194363</v>
+        <v>193288</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2065707585266284</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1771356665658187</v>
+        <v>0.1791748786755476</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2356346128366448</v>
+        <v>0.2343307294697816</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>371</v>
@@ -1435,19 +1435,19 @@
         <v>386689</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>354021</v>
+        <v>354092</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>427469</v>
+        <v>426825</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.196256357513445</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1796762068989817</v>
+        <v>0.1797123491535861</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2169535597558171</v>
+        <v>0.2166265906155742</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>929177</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>900062</v>
+        <v>901926</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>953570</v>
+        <v>955136</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8111709786316984</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7857539075166651</v>
+        <v>0.787380731400646</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8324659648590896</v>
+        <v>0.8338329401319792</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>636</v>
@@ -1485,19 +1485,19 @@
         <v>654460</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>630487</v>
+        <v>631562</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>678740</v>
+        <v>677058</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7934292414733717</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7643653871633552</v>
+        <v>0.7656692705302184</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8228643334341813</v>
+        <v>0.8208251213244524</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1525</v>
@@ -1506,19 +1506,19 @@
         <v>1583637</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1542857</v>
+        <v>1543501</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1616305</v>
+        <v>1616234</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8037436424865549</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.783046440244183</v>
+        <v>0.7833734093844262</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8203237931010194</v>
+        <v>0.820287650846414</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>169400</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>148319</v>
+        <v>147147</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>192511</v>
+        <v>192809</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2738520622204709</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2397714321321653</v>
+        <v>0.2378770155832906</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3112133041006195</v>
+        <v>0.3116952547635549</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>215</v>
@@ -1631,19 +1631,19 @@
         <v>233272</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>208952</v>
+        <v>206101</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>259699</v>
+        <v>256884</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3169309437787158</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2838893659965507</v>
+        <v>0.280015789290286</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3528365070185987</v>
+        <v>0.3490116936330614</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>383</v>
@@ -1652,19 +1652,19 @@
         <v>402672</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>369032</v>
+        <v>369494</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>437705</v>
+        <v>438475</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2972590472900391</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2724250769009021</v>
+        <v>0.2727661872214581</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3231206557740268</v>
+        <v>0.3236891900893542</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>449183</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>426072</v>
+        <v>425774</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>470264</v>
+        <v>471436</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7261479377795291</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6887866958993805</v>
+        <v>0.688304745236445</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7602285678678347</v>
+        <v>0.7621229844167094</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>482</v>
@@ -1702,19 +1702,19 @@
         <v>502761</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>476334</v>
+        <v>479149</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>527081</v>
+        <v>529932</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6830690562212842</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6471634929814013</v>
+        <v>0.6509883063669387</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7161106340034497</v>
+        <v>0.719984210709714</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>909</v>
@@ -1723,19 +1723,19 @@
         <v>951945</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>916912</v>
+        <v>916142</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>985585</v>
+        <v>985123</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7027409527099608</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6768793442259732</v>
+        <v>0.6763108099106461</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.727574923099098</v>
+        <v>0.7272338127785419</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>18008</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10652</v>
+        <v>10884</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>29092</v>
+        <v>28443</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06271292829632405</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03709742671410662</v>
+        <v>0.03790516951481857</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1013134101934208</v>
+        <v>0.09905600424151084</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>243</v>
@@ -1848,19 +1848,19 @@
         <v>280530</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>251504</v>
+        <v>250383</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>312277</v>
+        <v>311388</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2608047825795926</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.233819920390406</v>
+        <v>0.2327770824310119</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2903189933284889</v>
+        <v>0.2894929944554293</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>259</v>
@@ -1869,19 +1869,19 @@
         <v>298538</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>269008</v>
+        <v>266689</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>332677</v>
+        <v>330622</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2190656870474128</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1973967550779116</v>
+        <v>0.195695281946778</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2441168410241353</v>
+        <v>0.2426088337309781</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>269137</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>258053</v>
+        <v>258702</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>276493</v>
+        <v>276261</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.937287071703676</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8986865898065792</v>
+        <v>0.9009439957584903</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9629025732858932</v>
+        <v>0.962094830485182</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>743</v>
@@ -1919,19 +1919,19 @@
         <v>795103</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>763356</v>
+        <v>764245</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>824129</v>
+        <v>825250</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7391952174204075</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7096810066715105</v>
+        <v>0.7105070055445707</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.766180079609594</v>
+        <v>0.7672229175689881</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>999</v>
@@ -1940,19 +1940,19 @@
         <v>1064240</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1030101</v>
+        <v>1032156</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1093770</v>
+        <v>1096089</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7809343129525872</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7558831589758646</v>
+        <v>0.7573911662690218</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8026032449220885</v>
+        <v>0.804304718053222</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>623922</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>582820</v>
+        <v>577856</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>673806</v>
+        <v>670254</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1850243403694516</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1728356952993715</v>
+        <v>0.1713636555256012</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1998177222488924</v>
+        <v>0.1987641924750967</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>743</v>
@@ -2065,19 +2065,19 @@
         <v>826618</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>773642</v>
+        <v>778438</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>883235</v>
+        <v>878859</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2351580811306317</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2200874344680354</v>
+        <v>0.2214519541314366</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2512646064471805</v>
+        <v>0.2500198221069279</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1345</v>
@@ -2086,19 +2086,19 @@
         <v>1450539</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1381439</v>
+        <v>1377792</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1518570</v>
+        <v>1517873</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2106118645424452</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2005789071235174</v>
+        <v>0.2000493362554257</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2204897052293136</v>
+        <v>0.2203884337761786</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>2748183</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2698299</v>
+        <v>2701851</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2789285</v>
+        <v>2794249</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8149756596305484</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8001822777511078</v>
+        <v>0.8012358075249035</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8271643047006285</v>
+        <v>0.8286363444743992</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2568</v>
@@ -2136,19 +2136,19 @@
         <v>2688539</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2631922</v>
+        <v>2636298</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2741515</v>
+        <v>2736719</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7648419188693683</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7487353935528197</v>
+        <v>0.7499801778930721</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7799125655319646</v>
+        <v>0.7785480458685634</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5177</v>
@@ -2157,19 +2157,19 @@
         <v>5436723</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5368692</v>
+        <v>5369389</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5505823</v>
+        <v>5509470</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7893881354575547</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7795102947706865</v>
+        <v>0.7796115662238212</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7994210928764832</v>
+        <v>0.7999506637445739</v>
       </c>
     </row>
     <row r="24">
@@ -2503,19 +2503,19 @@
         <v>62984</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>49091</v>
+        <v>49542</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>80858</v>
+        <v>82448</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.114387140179986</v>
+        <v>0.1143871401799861</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08915664413666993</v>
+        <v>0.0899746724652695</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1468500612900487</v>
+        <v>0.1497376461223032</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>64</v>
@@ -2524,19 +2524,19 @@
         <v>44437</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>34806</v>
+        <v>33797</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>58326</v>
+        <v>56745</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.09119460975442223</v>
+        <v>0.09119460975442222</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07142858364385375</v>
+        <v>0.06935833075142418</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1196972677800671</v>
+        <v>0.1164532142696346</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>131</v>
@@ -2545,19 +2545,19 @@
         <v>107421</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>90316</v>
+        <v>88276</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>126519</v>
+        <v>127833</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1034985572196103</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08701794053308522</v>
+        <v>0.08505228802926865</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1218991164181274</v>
+        <v>0.1231657092874718</v>
       </c>
     </row>
     <row r="5">
@@ -2574,19 +2574,19 @@
         <v>487634</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>469760</v>
+        <v>468170</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>501527</v>
+        <v>501076</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.885612859820014</v>
+        <v>0.8856128598200139</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8531499387099516</v>
+        <v>0.8502623538776969</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9108433558633301</v>
+        <v>0.9100253275347306</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>620</v>
@@ -2595,19 +2595,19 @@
         <v>442842</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>428953</v>
+        <v>430534</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>452473</v>
+        <v>453482</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9088053902455778</v>
+        <v>0.9088053902455777</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.880302732219933</v>
+        <v>0.8835467857303654</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9285714163561463</v>
+        <v>0.9306416692485759</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1107</v>
@@ -2616,19 +2616,19 @@
         <v>930476</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>911378</v>
+        <v>910064</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>947581</v>
+        <v>949621</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8965014427803897</v>
+        <v>0.8965014427803896</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8781008835818724</v>
+        <v>0.8768342907125282</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9129820594669149</v>
+        <v>0.9149477119707311</v>
       </c>
     </row>
     <row r="6">
@@ -2720,19 +2720,19 @@
         <v>46634</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>34586</v>
+        <v>34930</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>59494</v>
+        <v>61550</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09664258020461426</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07167427513557334</v>
+        <v>0.07238654174873912</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1232924731889502</v>
+        <v>0.1275537932290529</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>78</v>
@@ -2744,16 +2744,16 @@
         <v>42569</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>65293</v>
+        <v>66362</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1263089526108278</v>
+        <v>0.1263089526108279</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1010004687872493</v>
+        <v>0.1010011421605414</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1549184055890854</v>
+        <v>0.1574546579355597</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>134</v>
@@ -2762,19 +2762,19 @@
         <v>99870</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>83879</v>
+        <v>85297</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>119095</v>
+        <v>120345</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.110473619044932</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0927845368941522</v>
+        <v>0.09435371333029979</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1317406875468892</v>
+        <v>0.1331230889540935</v>
       </c>
     </row>
     <row r="8">
@@ -2791,19 +2791,19 @@
         <v>435911</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>423051</v>
+        <v>420995</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>447959</v>
+        <v>447615</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9033574197953856</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8767075268110492</v>
+        <v>0.8724462067709469</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9283257248644267</v>
+        <v>0.9276134582512607</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>510</v>
@@ -2812,7 +2812,7 @@
         <v>368234</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>356176</v>
+        <v>355107</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>378900</v>
@@ -2821,10 +2821,10 @@
         <v>0.8736910473891721</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8450815944109149</v>
+        <v>0.8425453420644403</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8989995312127507</v>
+        <v>0.8989988578394587</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>934</v>
@@ -2833,19 +2833,19 @@
         <v>804144</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>784919</v>
+        <v>783669</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>820135</v>
+        <v>818717</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8895263809550681</v>
+        <v>0.889526380955068</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8682593124531108</v>
+        <v>0.8668769110459066</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.907215463105848</v>
+        <v>0.9056462866697007</v>
       </c>
     </row>
     <row r="9">
@@ -2937,19 +2937,19 @@
         <v>67837</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>54359</v>
+        <v>54837</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>86099</v>
+        <v>83365</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1438407979057354</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1152623665306489</v>
+        <v>0.1162751580231718</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1825634912550191</v>
+        <v>0.1767658874702339</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>56</v>
@@ -2958,19 +2958,19 @@
         <v>34480</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>26262</v>
+        <v>26878</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>43815</v>
+        <v>43765</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1838946415219577</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1400650856999991</v>
+        <v>0.1433534084011036</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2336858590644621</v>
+        <v>0.2334178109476236</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>139</v>
@@ -2979,19 +2979,19 @@
         <v>102317</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>86636</v>
+        <v>86388</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>121342</v>
+        <v>120246</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.1552349480842386</v>
+        <v>0.1552349480842387</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.131444578933467</v>
+        <v>0.1310672960803989</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1840995239557428</v>
+        <v>0.1824378460729776</v>
       </c>
     </row>
     <row r="11">
@@ -3008,19 +3008,19 @@
         <v>403775</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>385513</v>
+        <v>388247</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>417253</v>
+        <v>416775</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8561592020942647</v>
+        <v>0.8561592020942644</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8174365087449809</v>
+        <v>0.823234112529766</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8847376334693511</v>
+        <v>0.8837248419768281</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>233</v>
@@ -3029,19 +3029,19 @@
         <v>153017</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>143682</v>
+        <v>143732</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>161235</v>
+        <v>160619</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8161053584780423</v>
+        <v>0.8161053584780422</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7663141409355378</v>
+        <v>0.7665821890523765</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8599349143000008</v>
+        <v>0.8566465915988961</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>638</v>
@@ -3050,19 +3050,19 @@
         <v>556792</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>537767</v>
+        <v>538863</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>572473</v>
+        <v>572721</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8447650519157615</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8159004760442573</v>
+        <v>0.8175621539270224</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8685554210665331</v>
+        <v>0.8689327039196011</v>
       </c>
     </row>
     <row r="12">
@@ -3154,19 +3154,19 @@
         <v>164057</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>140985</v>
+        <v>143606</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>188152</v>
+        <v>187657</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1457610367520133</v>
+        <v>0.1457610367520134</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1252624161915263</v>
+        <v>0.1275903126179708</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1671687557039397</v>
+        <v>0.1667288657371867</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>160</v>
@@ -3175,19 +3175,19 @@
         <v>105643</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>90544</v>
+        <v>91112</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>123522</v>
+        <v>123879</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1233221976276447</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1056954628665614</v>
+        <v>0.1063590421404045</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1441924004717425</v>
+        <v>0.1446093144573809</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>357</v>
@@ -3196,19 +3196,19 @@
         <v>269701</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>243668</v>
+        <v>242258</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>299010</v>
+        <v>296874</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1360634955653523</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1229302303581485</v>
+        <v>0.1222189925107492</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1508500251814894</v>
+        <v>0.1497723940438686</v>
       </c>
     </row>
     <row r="14">
@@ -3225,19 +3225,19 @@
         <v>961464</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>937369</v>
+        <v>937864</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>984536</v>
+        <v>981915</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8542389632479865</v>
+        <v>0.8542389632479868</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8328312442960604</v>
+        <v>0.8332711342628131</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8747375838084737</v>
+        <v>0.8724096873820293</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1062</v>
@@ -3246,19 +3246,19 @@
         <v>751003</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>733124</v>
+        <v>732767</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>766102</v>
+        <v>765534</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8766778023723554</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8558075995282572</v>
+        <v>0.8553906855426191</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8943045371334385</v>
+        <v>0.8936409578595953</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1976</v>
@@ -3267,19 +3267,19 @@
         <v>1712466</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1683157</v>
+        <v>1685293</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1738499</v>
+        <v>1739909</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8639365044346478</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8491499748185107</v>
+        <v>0.8502276059561314</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8770697696418516</v>
+        <v>0.877781007489251</v>
       </c>
     </row>
     <row r="15">
@@ -3371,19 +3371,19 @@
         <v>108700</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>91154</v>
+        <v>89709</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>128440</v>
+        <v>128623</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1922563391602892</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1612227950215428</v>
+        <v>0.1586665065057088</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2271699253239373</v>
+        <v>0.2274931310002495</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>358</v>
@@ -3392,19 +3392,19 @@
         <v>210884</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>190065</v>
+        <v>190605</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>229936</v>
+        <v>231572</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2551522660605137</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2299638409567137</v>
+        <v>0.2306161819082002</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2782043175756582</v>
+        <v>0.2801836196902384</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>490</v>
@@ -3413,19 +3413,19 @@
         <v>319583</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>294087</v>
+        <v>295032</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>349282</v>
+        <v>350185</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2296037305540791</v>
+        <v>0.229603730554079</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2112858910946123</v>
+        <v>0.2119649224888447</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2509406367474118</v>
+        <v>0.2515895189676388</v>
       </c>
     </row>
     <row r="17">
@@ -3442,19 +3442,19 @@
         <v>456691</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>436951</v>
+        <v>436768</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>474237</v>
+        <v>475682</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8077436608397106</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7728300746760626</v>
+        <v>0.7725068689997507</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8387772049784571</v>
+        <v>0.8413334934942913</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>924</v>
@@ -3463,19 +3463,19 @@
         <v>615617</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>596565</v>
+        <v>594929</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>636436</v>
+        <v>635896</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7448477339394863</v>
+        <v>0.7448477339394862</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7217956824243419</v>
+        <v>0.7198163803097617</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7700361590432864</v>
+        <v>0.7693838180918</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1336</v>
@@ -3484,19 +3484,19 @@
         <v>1072308</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1042609</v>
+        <v>1041706</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1097804</v>
+        <v>1096859</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7703962694459212</v>
+        <v>0.770396269445921</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7490593632525882</v>
+        <v>0.7484104810323613</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7887141089053876</v>
+        <v>0.7880350775111551</v>
       </c>
     </row>
     <row r="18">
@@ -3588,19 +3588,19 @@
         <v>12431</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5910</v>
+        <v>5965</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22797</v>
+        <v>21785</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05240313014776455</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02491141297044859</v>
+        <v>0.02514284269817105</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09609714139603252</v>
+        <v>0.09183125867884029</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>294</v>
@@ -3609,19 +3609,19 @@
         <v>183920</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>163869</v>
+        <v>165129</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>206723</v>
+        <v>206385</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2200270274904854</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1960397474401979</v>
+        <v>0.1975471621172064</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.247306498831679</v>
+        <v>0.2469027969137919</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>305</v>
@@ -3630,19 +3630,19 @@
         <v>196351</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>174138</v>
+        <v>174548</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>220874</v>
+        <v>221990</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1829716565328889</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1622714723777788</v>
+        <v>0.1626540834710776</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2058233815328326</v>
+        <v>0.2068630236864759</v>
       </c>
     </row>
     <row r="20">
@@ -3659,19 +3659,19 @@
         <v>224797</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>214431</v>
+        <v>215443</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>231318</v>
+        <v>231263</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9475968698522355</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9039028586039672</v>
+        <v>0.9081687413211605</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9750885870295513</v>
+        <v>0.9748571573018291</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>849</v>
@@ -3680,19 +3680,19 @@
         <v>651977</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>629174</v>
+        <v>629512</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>672028</v>
+        <v>670768</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7799729725095148</v>
+        <v>0.7799729725095146</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7526935011683212</v>
+        <v>0.7530972030862083</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8039602525598023</v>
+        <v>0.8024528378827935</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>950</v>
@@ -3701,19 +3701,19 @@
         <v>876774</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>852251</v>
+        <v>851135</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>898987</v>
+        <v>898577</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8170283434671112</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7941766184671677</v>
+        <v>0.7931369763135241</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8377285276222214</v>
+        <v>0.8373459165289225</v>
       </c>
     </row>
     <row r="21">
@@ -3805,19 +3805,19 @@
         <v>462644</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>422286</v>
+        <v>424737</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>504440</v>
+        <v>502614</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1347670034252322</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.123010854547627</v>
+        <v>0.1237250309380679</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1469421033985327</v>
+        <v>0.1464102686672546</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1010</v>
@@ -3826,19 +3826,19 @@
         <v>632599</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>598351</v>
+        <v>593039</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>670544</v>
+        <v>674364</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1749788746284857</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1655057889715751</v>
+        <v>0.1640364872588281</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1854746619810149</v>
+        <v>0.186531067486151</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1556</v>
@@ -3847,19 +3847,19 @@
         <v>1095243</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1042665</v>
+        <v>1037294</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1152406</v>
+        <v>1150077</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.1553931854402471</v>
+        <v>0.155393185440247</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1479334452946822</v>
+        <v>0.1471714382794747</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1635034500124303</v>
+        <v>0.1631730597074234</v>
       </c>
     </row>
     <row r="23">
@@ -3876,19 +3876,19 @@
         <v>2970270</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2928474</v>
+        <v>2930300</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3010628</v>
+        <v>3008177</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8652329965747678</v>
+        <v>0.8652329965747677</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.853057896601467</v>
+        <v>0.8535897313327454</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8769891454523728</v>
+        <v>0.8762749690619323</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4198</v>
@@ -3897,19 +3897,19 @@
         <v>2982689</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2944744</v>
+        <v>2940924</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3016937</v>
+        <v>3022249</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8250211253715144</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8145253380189852</v>
+        <v>0.8134689325138491</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8344942110284249</v>
+        <v>0.835963512741172</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6941</v>
@@ -3918,19 +3918,19 @@
         <v>5952960</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5895797</v>
+        <v>5898126</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6005538</v>
+        <v>6010909</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8446068145597531</v>
+        <v>0.8446068145597528</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8364965499875697</v>
+        <v>0.8368269402925766</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8520665547053179</v>
+        <v>0.8528285617205251</v>
       </c>
     </row>
     <row r="24">
